--- a/big visual analysis.xlsx
+++ b/big visual analysis.xlsx
@@ -5,24 +5,26 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diarmid\Documents\Portal\cluster_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdtgroup\Documents\Python_Scripts\cluster_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13670" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ward_n=4" sheetId="2" r:id="rId1"/>
     <sheet name="ward_n=6" sheetId="3" r:id="rId2"/>
     <sheet name="ward__n=8" sheetId="1" r:id="rId3"/>
     <sheet name="ward_n=12" sheetId="4" r:id="rId4"/>
+    <sheet name="k-means_n=8" sheetId="5" r:id="rId5"/>
+    <sheet name="SA_ward_n=7" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="15">
   <si>
     <t>mon</t>
   </si>
@@ -815,25 +817,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="60">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF99CC"/>
+          <bgColor rgb="FFFD0F15"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFEB6B1D"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -847,21 +842,28 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
+          <bgColor rgb="FFE87ECF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -875,7 +877,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00B0F0"/>
+          <bgColor rgb="FFFD0F15"/>
         </patternFill>
       </fill>
     </dxf>
@@ -889,6 +891,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE87ECF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FF7030A0"/>
         </patternFill>
       </fill>
@@ -896,7 +926,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1496,9 +1526,9 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -1509,7 +1539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1577,7 +1607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1645,7 +1675,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3+7</f>
         <v>8</v>
@@ -1714,7 +1744,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A55" si="0">A4+7</f>
         <v>15</v>
@@ -1783,7 +1813,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1852,7 +1882,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1921,7 +1951,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1990,7 +2020,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2059,7 +2089,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2128,7 +2158,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2197,7 +2227,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2266,7 +2296,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -2335,7 +2365,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -2413,7 +2443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -2482,7 +2512,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>92</v>
@@ -2551,7 +2581,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>99</v>
@@ -2620,7 +2650,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -2689,7 +2719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>113</v>
@@ -2758,7 +2788,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -2827,7 +2857,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>127</v>
@@ -2896,7 +2926,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>134</v>
@@ -2965,7 +2995,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>141</v>
@@ -3034,7 +3064,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>148</v>
@@ -3103,7 +3133,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>155</v>
@@ -3172,7 +3202,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>162</v>
@@ -3241,7 +3271,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <f t="shared" si="0"/>
         <v>169</v>
@@ -3319,7 +3349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>176</v>
@@ -3388,7 +3418,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>183</v>
@@ -3457,7 +3487,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>190</v>
@@ -3526,7 +3556,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>197</v>
@@ -3595,7 +3625,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>204</v>
@@ -3664,7 +3694,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>211</v>
@@ -3733,7 +3763,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>218</v>
@@ -3802,7 +3832,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>225</v>
@@ -3871,7 +3901,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>232</v>
@@ -3940,7 +3970,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>239</v>
@@ -4009,7 +4039,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>246</v>
@@ -4078,7 +4108,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f>A38+7</f>
         <v>253</v>
@@ -4147,7 +4177,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>260</v>
@@ -4216,7 +4246,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <f t="shared" si="0"/>
         <v>267</v>
@@ -4294,7 +4324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>274</v>
@@ -4363,7 +4393,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>281</v>
@@ -4432,7 +4462,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>288</v>
@@ -4501,7 +4531,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>295</v>
@@ -4570,7 +4600,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>302</v>
@@ -4639,7 +4669,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>309</v>
@@ -4708,7 +4738,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>316</v>
@@ -4777,7 +4807,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>323</v>
@@ -4846,7 +4876,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>330</v>
@@ -4915,7 +4945,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>337</v>
@@ -4984,7 +5014,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>344</v>
@@ -5053,7 +5083,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>351</v>
@@ -5122,7 +5152,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>358</v>
@@ -5191,7 +5221,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <f t="shared" si="0"/>
         <v>365</v>
@@ -5235,28 +5265,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B55 B39:H54 A39:A55 B3:H4 A5:H38">
-    <cfRule type="expression" dxfId="47" priority="5">
+    <cfRule type="expression" dxfId="59" priority="5">
       <formula>A3=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="6">
+    <cfRule type="expression" dxfId="58" priority="6">
       <formula>A3=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="7">
+    <cfRule type="expression" dxfId="57" priority="7">
       <formula>A3=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="8">
+    <cfRule type="expression" dxfId="56" priority="8">
       <formula>A3=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="9">
+    <cfRule type="expression" dxfId="55" priority="9">
       <formula>A3=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="10">
+    <cfRule type="expression" dxfId="54" priority="10">
       <formula>A3=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="11">
+    <cfRule type="expression" dxfId="53" priority="11">
       <formula>A3=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="12">
+    <cfRule type="expression" dxfId="52" priority="12">
       <formula>A3=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5320,9 +5350,9 @@
       <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -5333,7 +5363,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5401,7 +5431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -5469,7 +5499,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3+7</f>
         <v>8</v>
@@ -5538,7 +5568,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A55" si="0">A4+7</f>
         <v>15</v>
@@ -5607,7 +5637,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5676,7 +5706,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -5745,7 +5775,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -5814,7 +5844,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -5883,7 +5913,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -5952,7 +5982,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -6021,7 +6051,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -6090,7 +6120,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -6159,7 +6189,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -6237,7 +6267,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -6306,7 +6336,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>92</v>
@@ -6375,7 +6405,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>99</v>
@@ -6444,7 +6474,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -6513,7 +6543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>113</v>
@@ -6582,7 +6612,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -6651,7 +6681,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>127</v>
@@ -6720,7 +6750,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>134</v>
@@ -6789,7 +6819,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>141</v>
@@ -6858,7 +6888,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>148</v>
@@ -6927,7 +6957,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>155</v>
@@ -6996,7 +7026,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>162</v>
@@ -7065,7 +7095,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <f t="shared" si="0"/>
         <v>169</v>
@@ -7143,7 +7173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>176</v>
@@ -7212,7 +7242,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>183</v>
@@ -7281,7 +7311,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>190</v>
@@ -7350,7 +7380,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>197</v>
@@ -7419,7 +7449,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>204</v>
@@ -7488,7 +7518,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>211</v>
@@ -7557,7 +7587,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>218</v>
@@ -7626,7 +7656,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>225</v>
@@ -7695,7 +7725,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>232</v>
@@ -7764,7 +7794,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>239</v>
@@ -7833,7 +7863,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>246</v>
@@ -7902,7 +7932,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f>A38+7</f>
         <v>253</v>
@@ -7971,7 +8001,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>260</v>
@@ -8040,7 +8070,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <f t="shared" si="0"/>
         <v>267</v>
@@ -8118,7 +8148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>274</v>
@@ -8187,7 +8217,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>281</v>
@@ -8256,7 +8286,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>288</v>
@@ -8325,7 +8355,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>295</v>
@@ -8394,7 +8424,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>302</v>
@@ -8463,7 +8493,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>309</v>
@@ -8532,7 +8562,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>316</v>
@@ -8601,7 +8631,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>323</v>
@@ -8670,7 +8700,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>330</v>
@@ -8739,7 +8769,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>337</v>
@@ -8808,7 +8838,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>344</v>
@@ -8877,7 +8907,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>351</v>
@@ -8946,7 +8976,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>358</v>
@@ -9015,7 +9045,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <f t="shared" si="0"/>
         <v>365</v>
@@ -9059,28 +9089,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B55 B39:H54 A39:A55 B3:H4 A5:H38">
-    <cfRule type="expression" dxfId="39" priority="5">
+    <cfRule type="expression" dxfId="51" priority="5">
       <formula>A3=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="6">
+    <cfRule type="expression" dxfId="50" priority="6">
       <formula>A3=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="7">
+    <cfRule type="expression" dxfId="49" priority="7">
       <formula>A3=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="8">
+    <cfRule type="expression" dxfId="48" priority="8">
       <formula>A3=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="9">
+    <cfRule type="expression" dxfId="47" priority="9">
       <formula>A3=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="10">
+    <cfRule type="expression" dxfId="46" priority="10">
       <formula>A3=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="11">
+    <cfRule type="expression" dxfId="45" priority="11">
       <formula>A3=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="12">
+    <cfRule type="expression" dxfId="44" priority="12">
       <formula>A3=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9140,13 +9170,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AA32" sqref="AA32"/>
+    <sheetView topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -9157,7 +9187,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -9225,7 +9255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -9293,7 +9323,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3+7</f>
         <v>8</v>
@@ -9362,7 +9392,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A55" si="0">A4+7</f>
         <v>15</v>
@@ -9431,7 +9461,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -9500,7 +9530,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -9569,7 +9599,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -9638,7 +9668,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -9707,7 +9737,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -9776,7 +9806,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -9845,7 +9875,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -9914,7 +9944,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -9983,7 +10013,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -10061,7 +10091,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -10130,7 +10160,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>92</v>
@@ -10199,7 +10229,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>99</v>
@@ -10268,7 +10298,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -10337,7 +10367,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>113</v>
@@ -10406,7 +10436,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -10475,7 +10505,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>127</v>
@@ -10544,7 +10574,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>134</v>
@@ -10613,7 +10643,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>141</v>
@@ -10682,7 +10712,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>148</v>
@@ -10751,7 +10781,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>155</v>
@@ -10820,7 +10850,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>162</v>
@@ -10889,7 +10919,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <f t="shared" si="0"/>
         <v>169</v>
@@ -10967,7 +10997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>176</v>
@@ -11036,7 +11066,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>183</v>
@@ -11105,7 +11135,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>190</v>
@@ -11174,7 +11204,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>197</v>
@@ -11243,7 +11273,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>204</v>
@@ -11312,7 +11342,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>211</v>
@@ -11381,7 +11411,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>218</v>
@@ -11450,7 +11480,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>225</v>
@@ -11519,7 +11549,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>232</v>
@@ -11588,7 +11618,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>239</v>
@@ -11657,7 +11687,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>246</v>
@@ -11726,7 +11756,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f>A38+7</f>
         <v>253</v>
@@ -11795,7 +11825,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>260</v>
@@ -11864,7 +11894,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <f t="shared" si="0"/>
         <v>267</v>
@@ -11942,7 +11972,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>274</v>
@@ -12011,7 +12041,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>281</v>
@@ -12080,7 +12110,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>288</v>
@@ -12149,7 +12179,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>295</v>
@@ -12218,7 +12248,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>302</v>
@@ -12287,7 +12317,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>309</v>
@@ -12356,7 +12386,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>316</v>
@@ -12425,7 +12455,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>323</v>
@@ -12494,7 +12524,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>330</v>
@@ -12563,7 +12593,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>337</v>
@@ -12632,7 +12662,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>344</v>
@@ -12701,7 +12731,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>351</v>
@@ -12770,7 +12800,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>358</v>
@@ -12839,7 +12869,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <f t="shared" si="0"/>
         <v>365</v>
@@ -12883,28 +12913,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B55 B39:H54 A39:A55 B3:H4 A5:H38">
-    <cfRule type="expression" dxfId="55" priority="21">
+    <cfRule type="expression" dxfId="43" priority="21">
       <formula>A3=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="22">
+    <cfRule type="expression" dxfId="42" priority="22">
       <formula>A3=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="23">
+    <cfRule type="expression" dxfId="41" priority="23">
       <formula>A3=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="24">
+    <cfRule type="expression" dxfId="40" priority="24">
       <formula>A3=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="25">
+    <cfRule type="expression" dxfId="39" priority="25">
       <formula>A3=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="26">
+    <cfRule type="expression" dxfId="38" priority="26">
       <formula>A3=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="27">
+    <cfRule type="expression" dxfId="37" priority="27">
       <formula>A3=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="30">
+    <cfRule type="expression" dxfId="36" priority="30">
       <formula>A3=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12965,13 +12995,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AN33" sqref="AN33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -12982,7 +13012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -13050,7 +13080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -13118,7 +13148,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f>A3+7</f>
         <v>8</v>
@@ -13187,7 +13217,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" ref="A5:A55" si="0">A4+7</f>
         <v>15</v>
@@ -13256,7 +13286,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -13325,7 +13355,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -13394,7 +13424,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -13463,7 +13493,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -13532,7 +13562,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -13601,7 +13631,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -13670,7 +13700,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -13739,7 +13769,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -13808,7 +13838,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>78</v>
@@ -13886,7 +13916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>85</v>
@@ -13955,7 +13985,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>92</v>
@@ -14024,7 +14054,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>99</v>
@@ -14093,7 +14123,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -14162,7 +14192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>113</v>
@@ -14231,7 +14261,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -14300,7 +14330,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>127</v>
@@ -14369,7 +14399,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>134</v>
@@ -14438,7 +14468,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>141</v>
@@ -14507,7 +14537,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>148</v>
@@ -14576,7 +14606,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>155</v>
@@ -14645,7 +14675,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>162</v>
@@ -14714,7 +14744,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <f t="shared" si="0"/>
         <v>169</v>
@@ -14792,7 +14822,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>176</v>
@@ -14861,7 +14891,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>183</v>
@@ -14930,7 +14960,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>190</v>
@@ -14999,7 +15029,7 @@
         <v>15.2</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>197</v>
@@ -15068,7 +15098,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>204</v>
@@ -15137,7 +15167,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>211</v>
@@ -15206,7 +15236,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" si="0"/>
         <v>218</v>
@@ -15275,7 +15305,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="0"/>
         <v>225</v>
@@ -15344,7 +15374,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="0"/>
         <v>232</v>
@@ -15413,7 +15443,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="0"/>
         <v>239</v>
@@ -15482,7 +15512,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="0"/>
         <v>246</v>
@@ -15551,7 +15581,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f>A38+7</f>
         <v>253</v>
@@ -15620,7 +15650,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="0"/>
         <v>260</v>
@@ -15689,7 +15719,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18">
         <f t="shared" si="0"/>
         <v>267</v>
@@ -15767,7 +15797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="0"/>
         <v>274</v>
@@ -15836,7 +15866,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="0"/>
         <v>281</v>
@@ -15905,7 +15935,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="0"/>
         <v>288</v>
@@ -15974,7 +16004,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="0"/>
         <v>295</v>
@@ -16043,7 +16073,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="0"/>
         <v>302</v>
@@ -16112,7 +16142,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="0"/>
         <v>309</v>
@@ -16181,7 +16211,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="0"/>
         <v>316</v>
@@ -16250,7 +16280,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="0"/>
         <v>323</v>
@@ -16319,7 +16349,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="0"/>
         <v>330</v>
@@ -16388,7 +16418,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" si="0"/>
         <v>337</v>
@@ -16457,7 +16487,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" si="0"/>
         <v>344</v>
@@ -16526,7 +16556,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" si="0"/>
         <v>351</v>
@@ -16595,7 +16625,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" si="0"/>
         <v>358</v>
@@ -16664,7 +16694,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="18">
         <f t="shared" si="0"/>
         <v>365</v>
@@ -16702,28 +16732,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A5:A55">
-    <cfRule type="expression" dxfId="31" priority="17">
+    <cfRule type="expression" dxfId="35" priority="17">
       <formula>A5=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="18">
+    <cfRule type="expression" dxfId="34" priority="18">
       <formula>A5=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="19">
+    <cfRule type="expression" dxfId="33" priority="19">
       <formula>A5=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="20">
+    <cfRule type="expression" dxfId="32" priority="20">
       <formula>A5=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="21">
+    <cfRule type="expression" dxfId="31" priority="21">
       <formula>A5=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22">
+    <cfRule type="expression" dxfId="30" priority="22">
       <formula>A5=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="23">
+    <cfRule type="expression" dxfId="29" priority="23">
       <formula>A5=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="24">
+    <cfRule type="expression" dxfId="28" priority="24">
       <formula>A5=1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16776,45 +16806,5372 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:H54 B55">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="27" priority="11">
       <formula>B3=10</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="26" priority="12">
       <formula>B3=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:H55">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="25" priority="1">
       <formula>B3=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="24" priority="2">
       <formula>B3=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="23" priority="3">
       <formula>B3=5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="22" priority="4">
       <formula>B3=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="21" priority="5">
       <formula>B3=9</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="20" priority="6">
       <formula>B3=8</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="19" priority="7">
       <formula>B3=12</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="18" priority="8">
       <formula>B3=11</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="17" priority="9">
       <formula>B3=7</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>B3=3</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y55"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:Y55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="K3">
+        <v>6.1</v>
+      </c>
+      <c r="L3">
+        <v>6.1</v>
+      </c>
+      <c r="M3">
+        <v>6.1</v>
+      </c>
+      <c r="N3">
+        <v>6.1</v>
+      </c>
+      <c r="O3" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="P3" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W3" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X3" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>A3+7</f>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>6.1</v>
+      </c>
+      <c r="K4">
+        <v>6.1</v>
+      </c>
+      <c r="L4">
+        <v>6.1</v>
+      </c>
+      <c r="M4">
+        <v>6.1</v>
+      </c>
+      <c r="N4">
+        <v>6.1</v>
+      </c>
+      <c r="O4" s="8">
+        <v>6.1</v>
+      </c>
+      <c r="P4" s="9">
+        <v>6.1</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="S4">
+        <v>1.7</v>
+      </c>
+      <c r="T4">
+        <v>1.7</v>
+      </c>
+      <c r="U4">
+        <v>1.7</v>
+      </c>
+      <c r="V4">
+        <v>1.7</v>
+      </c>
+      <c r="W4" s="8">
+        <v>1.7</v>
+      </c>
+      <c r="X4" s="9">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" ref="A5:A55" si="0">A4+7</f>
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="K5">
+        <v>5.9</v>
+      </c>
+      <c r="L5">
+        <v>5.9</v>
+      </c>
+      <c r="M5">
+        <v>5.9</v>
+      </c>
+      <c r="N5">
+        <v>5.9</v>
+      </c>
+      <c r="O5" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="P5" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="R5" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="S5">
+        <v>1.8</v>
+      </c>
+      <c r="T5">
+        <v>1.8</v>
+      </c>
+      <c r="U5">
+        <v>1.8</v>
+      </c>
+      <c r="V5">
+        <v>1.8</v>
+      </c>
+      <c r="W5" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="X5" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+      <c r="H6" s="9">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="K6">
+        <v>5.2</v>
+      </c>
+      <c r="L6">
+        <v>5.2</v>
+      </c>
+      <c r="M6">
+        <v>5.2</v>
+      </c>
+      <c r="N6">
+        <v>5.2</v>
+      </c>
+      <c r="O6" s="8">
+        <v>5.2</v>
+      </c>
+      <c r="P6" s="9">
+        <v>5.2</v>
+      </c>
+      <c r="R6" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="S6">
+        <v>1.8</v>
+      </c>
+      <c r="T6">
+        <v>1.8</v>
+      </c>
+      <c r="U6">
+        <v>1.8</v>
+      </c>
+      <c r="V6">
+        <v>1.8</v>
+      </c>
+      <c r="W6" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="X6" s="9">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K7">
+        <v>5.5</v>
+      </c>
+      <c r="L7">
+        <v>5.5</v>
+      </c>
+      <c r="M7">
+        <v>5.5</v>
+      </c>
+      <c r="N7">
+        <v>5.5</v>
+      </c>
+      <c r="O7" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="P7" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="S7">
+        <v>1.5</v>
+      </c>
+      <c r="T7">
+        <v>1.5</v>
+      </c>
+      <c r="U7">
+        <v>1.5</v>
+      </c>
+      <c r="V7">
+        <v>1.5</v>
+      </c>
+      <c r="W7" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="X7" s="9">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="K8">
+        <v>5.5</v>
+      </c>
+      <c r="L8">
+        <v>5.5</v>
+      </c>
+      <c r="M8">
+        <v>5.5</v>
+      </c>
+      <c r="N8">
+        <v>5.5</v>
+      </c>
+      <c r="O8" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="P8" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="R8" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W8" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X8" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>5.9</v>
+      </c>
+      <c r="K9">
+        <v>5.9</v>
+      </c>
+      <c r="L9">
+        <v>5.9</v>
+      </c>
+      <c r="M9">
+        <v>5.9</v>
+      </c>
+      <c r="N9">
+        <v>5.9</v>
+      </c>
+      <c r="O9" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="P9" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="R9">
+        <v>2.8</v>
+      </c>
+      <c r="S9">
+        <v>2.8</v>
+      </c>
+      <c r="T9">
+        <v>2.8</v>
+      </c>
+      <c r="U9">
+        <v>2.8</v>
+      </c>
+      <c r="V9">
+        <v>2.8</v>
+      </c>
+      <c r="W9" s="8">
+        <v>2.8</v>
+      </c>
+      <c r="X9" s="9">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10" s="8">
+        <v>7</v>
+      </c>
+      <c r="H10" s="9">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>5.9</v>
+      </c>
+      <c r="K10">
+        <v>5.9</v>
+      </c>
+      <c r="L10">
+        <v>5.9</v>
+      </c>
+      <c r="M10">
+        <v>5.9</v>
+      </c>
+      <c r="N10">
+        <v>5.9</v>
+      </c>
+      <c r="O10" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="P10" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="R10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W10" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X10" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" s="8">
+        <v>4</v>
+      </c>
+      <c r="H11" s="9">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>6.5</v>
+      </c>
+      <c r="K11">
+        <v>6.5</v>
+      </c>
+      <c r="L11">
+        <v>6.5</v>
+      </c>
+      <c r="M11">
+        <v>6.5</v>
+      </c>
+      <c r="N11">
+        <v>6.5</v>
+      </c>
+      <c r="O11" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="P11" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="R11">
+        <v>3.2</v>
+      </c>
+      <c r="S11">
+        <v>3.2</v>
+      </c>
+      <c r="T11">
+        <v>3.2</v>
+      </c>
+      <c r="U11">
+        <v>3.2</v>
+      </c>
+      <c r="V11">
+        <v>3.2</v>
+      </c>
+      <c r="W11" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="X11" s="9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12" s="8">
+        <v>7</v>
+      </c>
+      <c r="H12" s="9">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>7.8</v>
+      </c>
+      <c r="K12">
+        <v>7.8</v>
+      </c>
+      <c r="L12">
+        <v>7.8</v>
+      </c>
+      <c r="M12">
+        <v>7.8</v>
+      </c>
+      <c r="N12">
+        <v>7.8</v>
+      </c>
+      <c r="O12" s="8">
+        <v>7.8</v>
+      </c>
+      <c r="P12" s="9">
+        <v>7.8</v>
+      </c>
+      <c r="R12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V12">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W12" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="X12" s="9">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13" s="8">
+        <v>7</v>
+      </c>
+      <c r="H13" s="9">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>8.1</v>
+      </c>
+      <c r="K13">
+        <v>8.1</v>
+      </c>
+      <c r="L13">
+        <v>8.1</v>
+      </c>
+      <c r="M13">
+        <v>8.1</v>
+      </c>
+      <c r="N13">
+        <v>8.1</v>
+      </c>
+      <c r="O13" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="P13" s="9">
+        <v>8.1</v>
+      </c>
+      <c r="R13">
+        <v>4.5</v>
+      </c>
+      <c r="S13">
+        <v>4.5</v>
+      </c>
+      <c r="T13">
+        <v>4.5</v>
+      </c>
+      <c r="U13">
+        <v>4.5</v>
+      </c>
+      <c r="V13">
+        <v>4.5</v>
+      </c>
+      <c r="W13" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="X13" s="9">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>7</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" s="8">
+        <v>7</v>
+      </c>
+      <c r="H14" s="17">
+        <v>5</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K14">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L14">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M14">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N14">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="O14" s="8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P14" s="17">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="R14">
+        <v>5.3</v>
+      </c>
+      <c r="S14">
+        <v>5.3</v>
+      </c>
+      <c r="T14">
+        <v>5.3</v>
+      </c>
+      <c r="U14">
+        <v>5.3</v>
+      </c>
+      <c r="V14">
+        <v>5.3</v>
+      </c>
+      <c r="W14" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="X14" s="17">
+        <v>5.3</v>
+      </c>
+      <c r="Y14" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="B15" s="13">
+        <v>3</v>
+      </c>
+      <c r="C15" s="13">
+        <v>3</v>
+      </c>
+      <c r="D15" s="13">
+        <v>3</v>
+      </c>
+      <c r="E15" s="13">
+        <v>3</v>
+      </c>
+      <c r="F15" s="14">
+        <v>3</v>
+      </c>
+      <c r="G15" s="16">
+        <v>3</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1</v>
+      </c>
+      <c r="J15" s="13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K15" s="13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L15" s="13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="M15" s="13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N15" s="14">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O15" s="16">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="P15" s="9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="R15" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="S15" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="T15" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="U15" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="V15" s="14">
+        <v>6.2</v>
+      </c>
+      <c r="W15" s="16">
+        <v>6.2</v>
+      </c>
+      <c r="X15" s="9">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="B16" s="12">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" s="8">
+        <v>5</v>
+      </c>
+      <c r="H16" s="9">
+        <v>5</v>
+      </c>
+      <c r="J16" s="12">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N16">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="O16" s="8">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="P16" s="9">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="R16" s="12">
+        <v>5.6</v>
+      </c>
+      <c r="S16">
+        <v>5.6</v>
+      </c>
+      <c r="T16">
+        <v>5.6</v>
+      </c>
+      <c r="U16">
+        <v>5.6</v>
+      </c>
+      <c r="V16">
+        <v>5.6</v>
+      </c>
+      <c r="W16" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="X16" s="9">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17" s="8">
+        <v>5</v>
+      </c>
+      <c r="H17" s="9">
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N17">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O17" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="P17" s="9">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="R17">
+        <v>6.2</v>
+      </c>
+      <c r="S17">
+        <v>6.2</v>
+      </c>
+      <c r="T17">
+        <v>6.2</v>
+      </c>
+      <c r="U17">
+        <v>6.2</v>
+      </c>
+      <c r="V17">
+        <v>6.2</v>
+      </c>
+      <c r="W17" s="8">
+        <v>6.2</v>
+      </c>
+      <c r="X17" s="9">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" s="8">
+        <v>3</v>
+      </c>
+      <c r="H18" s="9">
+        <v>5</v>
+      </c>
+      <c r="J18">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="K18">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L18">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M18">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="N18">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="O18" s="8">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P18" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="R18">
+        <v>7</v>
+      </c>
+      <c r="S18">
+        <v>7</v>
+      </c>
+      <c r="T18">
+        <v>7</v>
+      </c>
+      <c r="U18">
+        <v>7</v>
+      </c>
+      <c r="V18">
+        <v>7</v>
+      </c>
+      <c r="W18" s="8">
+        <v>7</v>
+      </c>
+      <c r="X18" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19" s="8">
+        <v>5</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>11.1</v>
+      </c>
+      <c r="K19">
+        <v>11.1</v>
+      </c>
+      <c r="L19">
+        <v>11.1</v>
+      </c>
+      <c r="M19">
+        <v>11.1</v>
+      </c>
+      <c r="N19">
+        <v>11.1</v>
+      </c>
+      <c r="O19" s="8">
+        <v>11.1</v>
+      </c>
+      <c r="P19" s="9">
+        <v>11.1</v>
+      </c>
+      <c r="R19">
+        <v>8.1</v>
+      </c>
+      <c r="S19">
+        <v>8.1</v>
+      </c>
+      <c r="T19">
+        <v>8.1</v>
+      </c>
+      <c r="U19">
+        <v>8.1</v>
+      </c>
+      <c r="V19">
+        <v>8.1</v>
+      </c>
+      <c r="W19" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="X19" s="9">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" s="8">
+        <v>5</v>
+      </c>
+      <c r="H20" s="9">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>11.3</v>
+      </c>
+      <c r="K20">
+        <v>11.3</v>
+      </c>
+      <c r="L20">
+        <v>11.3</v>
+      </c>
+      <c r="M20">
+        <v>11.3</v>
+      </c>
+      <c r="N20">
+        <v>11.3</v>
+      </c>
+      <c r="O20" s="8">
+        <v>11.3</v>
+      </c>
+      <c r="P20" s="9">
+        <v>11.3</v>
+      </c>
+      <c r="R20">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="S20">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="T20">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="U20">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="V20">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="W20" s="8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="X20" s="9">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" s="8">
+        <v>5</v>
+      </c>
+      <c r="H21" s="9">
+        <v>5</v>
+      </c>
+      <c r="J21" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="K21">
+        <v>12.2</v>
+      </c>
+      <c r="L21">
+        <v>12.2</v>
+      </c>
+      <c r="M21">
+        <v>12.2</v>
+      </c>
+      <c r="N21">
+        <v>12.2</v>
+      </c>
+      <c r="O21" s="8">
+        <v>12.2</v>
+      </c>
+      <c r="P21" s="9">
+        <v>12.2</v>
+      </c>
+      <c r="R21" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="S21">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="T21">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="U21">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="V21">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="W21" s="8">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="X21" s="9">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" s="8">
+        <v>5</v>
+      </c>
+      <c r="H22" s="9">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>12.6</v>
+      </c>
+      <c r="K22">
+        <v>12.6</v>
+      </c>
+      <c r="L22">
+        <v>12.6</v>
+      </c>
+      <c r="M22">
+        <v>12.6</v>
+      </c>
+      <c r="N22">
+        <v>12.6</v>
+      </c>
+      <c r="O22" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="P22" s="9">
+        <v>12.6</v>
+      </c>
+      <c r="R22">
+        <v>10.1</v>
+      </c>
+      <c r="S22">
+        <v>10.1</v>
+      </c>
+      <c r="T22">
+        <v>10.1</v>
+      </c>
+      <c r="U22">
+        <v>10.1</v>
+      </c>
+      <c r="V22">
+        <v>10.1</v>
+      </c>
+      <c r="W22" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="X22" s="9">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23" s="8">
+        <v>6</v>
+      </c>
+      <c r="H23" s="9">
+        <v>5</v>
+      </c>
+      <c r="J23">
+        <v>13.5</v>
+      </c>
+      <c r="K23">
+        <v>13.5</v>
+      </c>
+      <c r="L23">
+        <v>13.5</v>
+      </c>
+      <c r="M23">
+        <v>13.5</v>
+      </c>
+      <c r="N23">
+        <v>13.5</v>
+      </c>
+      <c r="O23" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="P23" s="9">
+        <v>13.5</v>
+      </c>
+      <c r="R23">
+        <v>11.1</v>
+      </c>
+      <c r="S23">
+        <v>11.1</v>
+      </c>
+      <c r="T23">
+        <v>11.1</v>
+      </c>
+      <c r="U23">
+        <v>11.1</v>
+      </c>
+      <c r="V23">
+        <v>11.1</v>
+      </c>
+      <c r="W23" s="8">
+        <v>11.1</v>
+      </c>
+      <c r="X23" s="9">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="B24" s="4">
+        <v>6</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" s="8">
+        <v>5</v>
+      </c>
+      <c r="H24" s="9">
+        <v>5</v>
+      </c>
+      <c r="J24" s="4">
+        <v>14</v>
+      </c>
+      <c r="K24">
+        <v>14</v>
+      </c>
+      <c r="L24">
+        <v>14</v>
+      </c>
+      <c r="M24">
+        <v>14</v>
+      </c>
+      <c r="N24">
+        <v>14</v>
+      </c>
+      <c r="O24" s="8">
+        <v>14</v>
+      </c>
+      <c r="P24" s="9">
+        <v>14</v>
+      </c>
+      <c r="R24" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="S24">
+        <v>11.8</v>
+      </c>
+      <c r="T24">
+        <v>11.8</v>
+      </c>
+      <c r="U24">
+        <v>11.8</v>
+      </c>
+      <c r="V24">
+        <v>11.8</v>
+      </c>
+      <c r="W24" s="8">
+        <v>11.8</v>
+      </c>
+      <c r="X24" s="9">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" s="8">
+        <v>5</v>
+      </c>
+      <c r="H25" s="9">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>14.5</v>
+      </c>
+      <c r="K25">
+        <v>14.5</v>
+      </c>
+      <c r="L25">
+        <v>14.5</v>
+      </c>
+      <c r="M25">
+        <v>14.5</v>
+      </c>
+      <c r="N25">
+        <v>14.5</v>
+      </c>
+      <c r="O25" s="8">
+        <v>14.5</v>
+      </c>
+      <c r="P25" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="R25">
+        <v>12.5</v>
+      </c>
+      <c r="S25">
+        <v>12.5</v>
+      </c>
+      <c r="T25">
+        <v>12.5</v>
+      </c>
+      <c r="U25">
+        <v>12.5</v>
+      </c>
+      <c r="V25">
+        <v>12.5</v>
+      </c>
+      <c r="W25" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="X25" s="9">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26" s="8">
+        <v>5</v>
+      </c>
+      <c r="H26" s="9">
+        <v>5</v>
+      </c>
+      <c r="J26">
+        <v>15.6</v>
+      </c>
+      <c r="K26">
+        <v>15.6</v>
+      </c>
+      <c r="L26">
+        <v>15.6</v>
+      </c>
+      <c r="M26">
+        <v>15.6</v>
+      </c>
+      <c r="N26">
+        <v>15.6</v>
+      </c>
+      <c r="O26" s="8">
+        <v>15.6</v>
+      </c>
+      <c r="P26" s="9">
+        <v>15.6</v>
+      </c>
+      <c r="R26">
+        <v>12.8</v>
+      </c>
+      <c r="S26">
+        <v>12.8</v>
+      </c>
+      <c r="T26">
+        <v>12.8</v>
+      </c>
+      <c r="U26">
+        <v>12.8</v>
+      </c>
+      <c r="V26">
+        <v>12.8</v>
+      </c>
+      <c r="W26" s="8">
+        <v>12.8</v>
+      </c>
+      <c r="X26" s="9">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" s="8">
+        <v>5</v>
+      </c>
+      <c r="H27" s="17">
+        <v>5</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="K27">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="L27">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="M27">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="N27">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="O27" s="8">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="P27" s="17">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R27">
+        <v>14.3</v>
+      </c>
+      <c r="S27">
+        <v>14.3</v>
+      </c>
+      <c r="T27">
+        <v>14.3</v>
+      </c>
+      <c r="U27">
+        <v>14.3</v>
+      </c>
+      <c r="V27">
+        <v>14.3</v>
+      </c>
+      <c r="W27" s="8">
+        <v>14.3</v>
+      </c>
+      <c r="X27" s="17">
+        <v>14.3</v>
+      </c>
+      <c r="Y27" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="B28" s="13">
+        <v>7</v>
+      </c>
+      <c r="C28" s="13">
+        <v>7</v>
+      </c>
+      <c r="D28" s="13">
+        <v>7</v>
+      </c>
+      <c r="E28" s="13">
+        <v>7</v>
+      </c>
+      <c r="F28" s="13">
+        <v>3</v>
+      </c>
+      <c r="G28" s="16">
+        <v>3</v>
+      </c>
+      <c r="H28" s="9">
+        <v>5</v>
+      </c>
+      <c r="J28" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="K28" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="L28" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="M28" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="N28" s="13">
+        <v>16.5</v>
+      </c>
+      <c r="O28" s="16">
+        <v>16.5</v>
+      </c>
+      <c r="P28" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="R28" s="13">
+        <v>14.8</v>
+      </c>
+      <c r="S28" s="13">
+        <v>14.8</v>
+      </c>
+      <c r="T28" s="13">
+        <v>14.8</v>
+      </c>
+      <c r="U28" s="13">
+        <v>14.8</v>
+      </c>
+      <c r="V28" s="13">
+        <v>14.8</v>
+      </c>
+      <c r="W28" s="16">
+        <v>14.8</v>
+      </c>
+      <c r="X28" s="9">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>6</v>
+      </c>
+      <c r="G29" s="8">
+        <v>5</v>
+      </c>
+      <c r="H29" s="9">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="K29">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="L29">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="M29">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="N29">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="O29" s="8">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="P29" s="9">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="R29">
+        <v>14.9</v>
+      </c>
+      <c r="S29">
+        <v>14.9</v>
+      </c>
+      <c r="T29">
+        <v>14.9</v>
+      </c>
+      <c r="U29">
+        <v>14.9</v>
+      </c>
+      <c r="V29">
+        <v>14.9</v>
+      </c>
+      <c r="W29" s="8">
+        <v>14.9</v>
+      </c>
+      <c r="X29" s="9">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="B30">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
+      <c r="G30" s="8">
+        <v>5</v>
+      </c>
+      <c r="H30" s="9">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>17.2</v>
+      </c>
+      <c r="K30">
+        <v>17.2</v>
+      </c>
+      <c r="L30">
+        <v>17.2</v>
+      </c>
+      <c r="M30">
+        <v>17.2</v>
+      </c>
+      <c r="N30">
+        <v>17.2</v>
+      </c>
+      <c r="O30" s="8">
+        <v>17.2</v>
+      </c>
+      <c r="P30" s="9">
+        <v>17.2</v>
+      </c>
+      <c r="R30">
+        <v>15.2</v>
+      </c>
+      <c r="S30">
+        <v>15.2</v>
+      </c>
+      <c r="T30">
+        <v>15.2</v>
+      </c>
+      <c r="U30">
+        <v>15.2</v>
+      </c>
+      <c r="V30">
+        <v>15.2</v>
+      </c>
+      <c r="W30" s="8">
+        <v>15.2</v>
+      </c>
+      <c r="X30" s="9">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>6</v>
+      </c>
+      <c r="G31" s="8">
+        <v>5</v>
+      </c>
+      <c r="H31" s="9">
+        <v>5</v>
+      </c>
+      <c r="J31">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K31">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L31">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="M31">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N31">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="O31" s="8">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="P31" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="R31">
+        <v>15.8</v>
+      </c>
+      <c r="S31">
+        <v>15.8</v>
+      </c>
+      <c r="T31">
+        <v>15.8</v>
+      </c>
+      <c r="U31">
+        <v>15.8</v>
+      </c>
+      <c r="V31">
+        <v>15.8</v>
+      </c>
+      <c r="W31" s="8">
+        <v>15.8</v>
+      </c>
+      <c r="X31" s="9">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>6</v>
+      </c>
+      <c r="G32" s="8">
+        <v>5</v>
+      </c>
+      <c r="H32" s="9">
+        <v>5</v>
+      </c>
+      <c r="J32">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="K32">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="L32">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="M32">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="N32">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="O32" s="8">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="P32" s="9">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="R32">
+        <v>15.7</v>
+      </c>
+      <c r="S32">
+        <v>15.7</v>
+      </c>
+      <c r="T32">
+        <v>15.7</v>
+      </c>
+      <c r="U32">
+        <v>15.7</v>
+      </c>
+      <c r="V32">
+        <v>15.7</v>
+      </c>
+      <c r="W32" s="8">
+        <v>15.7</v>
+      </c>
+      <c r="X32" s="9">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" s="8">
+        <v>5</v>
+      </c>
+      <c r="H33" s="9">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K33">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L33">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="M33">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="N33">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="O33" s="8">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="P33" s="9">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="R33">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="S33">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="T33">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="U33">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="V33">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="W33" s="8">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="X33" s="9">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" s="8">
+        <v>6</v>
+      </c>
+      <c r="H34" s="9">
+        <v>6</v>
+      </c>
+      <c r="J34">
+        <v>17.7</v>
+      </c>
+      <c r="K34">
+        <v>17.7</v>
+      </c>
+      <c r="L34">
+        <v>17.7</v>
+      </c>
+      <c r="M34">
+        <v>17.7</v>
+      </c>
+      <c r="N34">
+        <v>17.7</v>
+      </c>
+      <c r="O34" s="8">
+        <v>17.7</v>
+      </c>
+      <c r="P34" s="9">
+        <v>17.7</v>
+      </c>
+      <c r="R34">
+        <v>15.8</v>
+      </c>
+      <c r="S34">
+        <v>15.8</v>
+      </c>
+      <c r="T34">
+        <v>15.8</v>
+      </c>
+      <c r="U34">
+        <v>15.8</v>
+      </c>
+      <c r="V34">
+        <v>15.8</v>
+      </c>
+      <c r="W34" s="8">
+        <v>15.8</v>
+      </c>
+      <c r="X34" s="9">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="B35">
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>6</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" s="8">
+        <v>5</v>
+      </c>
+      <c r="H35" s="9">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K35">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="L35">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="M35">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N35">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="O35" s="8">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="P35" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="R35">
+        <v>15.7</v>
+      </c>
+      <c r="S35">
+        <v>15.7</v>
+      </c>
+      <c r="T35">
+        <v>15.7</v>
+      </c>
+      <c r="U35">
+        <v>15.7</v>
+      </c>
+      <c r="V35">
+        <v>15.7</v>
+      </c>
+      <c r="W35" s="8">
+        <v>15.7</v>
+      </c>
+      <c r="X35" s="9">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>8</v>
+      </c>
+      <c r="G36" s="8">
+        <v>8</v>
+      </c>
+      <c r="H36" s="9">
+        <v>6</v>
+      </c>
+      <c r="J36">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="K36">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="L36">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="M36">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="N36">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="O36" s="8">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="P36" s="9">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="R36">
+        <v>14.8</v>
+      </c>
+      <c r="S36">
+        <v>14.8</v>
+      </c>
+      <c r="T36">
+        <v>14.8</v>
+      </c>
+      <c r="U36">
+        <v>14.8</v>
+      </c>
+      <c r="V36">
+        <v>14.8</v>
+      </c>
+      <c r="W36" s="8">
+        <v>14.8</v>
+      </c>
+      <c r="X36" s="9">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+      <c r="B37" s="4">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37" s="8">
+        <v>8</v>
+      </c>
+      <c r="H37" s="9">
+        <v>5</v>
+      </c>
+      <c r="J37" s="4">
+        <v>16.2</v>
+      </c>
+      <c r="K37">
+        <v>16.2</v>
+      </c>
+      <c r="L37">
+        <v>16.2</v>
+      </c>
+      <c r="M37">
+        <v>16.2</v>
+      </c>
+      <c r="N37">
+        <v>16.2</v>
+      </c>
+      <c r="O37" s="8">
+        <v>16.2</v>
+      </c>
+      <c r="P37" s="9">
+        <v>16.2</v>
+      </c>
+      <c r="R37" s="4">
+        <v>14.6</v>
+      </c>
+      <c r="S37">
+        <v>14.6</v>
+      </c>
+      <c r="T37">
+        <v>14.6</v>
+      </c>
+      <c r="U37">
+        <v>14.6</v>
+      </c>
+      <c r="V37">
+        <v>14.6</v>
+      </c>
+      <c r="W37" s="8">
+        <v>14.6</v>
+      </c>
+      <c r="X37" s="9">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>8</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38" s="8">
+        <v>8</v>
+      </c>
+      <c r="H38" s="9">
+        <v>8</v>
+      </c>
+      <c r="J38">
+        <v>16.2</v>
+      </c>
+      <c r="K38">
+        <v>16.2</v>
+      </c>
+      <c r="L38">
+        <v>16.2</v>
+      </c>
+      <c r="M38">
+        <v>16.2</v>
+      </c>
+      <c r="N38">
+        <v>16.2</v>
+      </c>
+      <c r="O38" s="8">
+        <v>16.2</v>
+      </c>
+      <c r="P38" s="9">
+        <v>16.2</v>
+      </c>
+      <c r="R38">
+        <v>14.3</v>
+      </c>
+      <c r="S38">
+        <v>14.3</v>
+      </c>
+      <c r="T38">
+        <v>14.3</v>
+      </c>
+      <c r="U38">
+        <v>14.3</v>
+      </c>
+      <c r="V38">
+        <v>14.3</v>
+      </c>
+      <c r="W38" s="8">
+        <v>14.3</v>
+      </c>
+      <c r="X38" s="9">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <f>A38+7</f>
+        <v>253</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39">
+        <v>8</v>
+      </c>
+      <c r="G39" s="8">
+        <v>8</v>
+      </c>
+      <c r="H39" s="9">
+        <v>5</v>
+      </c>
+      <c r="J39">
+        <v>15.1</v>
+      </c>
+      <c r="K39">
+        <v>15.1</v>
+      </c>
+      <c r="L39">
+        <v>15.1</v>
+      </c>
+      <c r="M39">
+        <v>15.1</v>
+      </c>
+      <c r="N39">
+        <v>15.1</v>
+      </c>
+      <c r="O39" s="8">
+        <v>15.1</v>
+      </c>
+      <c r="P39" s="9">
+        <v>15.1</v>
+      </c>
+      <c r="R39">
+        <v>13.2</v>
+      </c>
+      <c r="S39">
+        <v>13.2</v>
+      </c>
+      <c r="T39">
+        <v>13.2</v>
+      </c>
+      <c r="U39">
+        <v>13.2</v>
+      </c>
+      <c r="V39">
+        <v>13.2</v>
+      </c>
+      <c r="W39" s="8">
+        <v>13.2</v>
+      </c>
+      <c r="X39" s="9">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="B40">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40" s="8">
+        <v>8</v>
+      </c>
+      <c r="H40" s="9">
+        <v>8</v>
+      </c>
+      <c r="J40">
+        <v>14.6</v>
+      </c>
+      <c r="K40">
+        <v>14.6</v>
+      </c>
+      <c r="L40">
+        <v>14.6</v>
+      </c>
+      <c r="M40">
+        <v>14.6</v>
+      </c>
+      <c r="N40">
+        <v>14.6</v>
+      </c>
+      <c r="O40" s="8">
+        <v>14.6</v>
+      </c>
+      <c r="P40" s="9">
+        <v>14.6</v>
+      </c>
+      <c r="R40">
+        <v>12.5</v>
+      </c>
+      <c r="S40">
+        <v>12.5</v>
+      </c>
+      <c r="T40">
+        <v>12.5</v>
+      </c>
+      <c r="U40">
+        <v>12.5</v>
+      </c>
+      <c r="V40">
+        <v>12.5</v>
+      </c>
+      <c r="W40" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="X40" s="9">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18">
+        <f t="shared" si="0"/>
+        <v>267</v>
+      </c>
+      <c r="B41" s="13">
+        <v>8</v>
+      </c>
+      <c r="C41" s="13">
+        <v>8</v>
+      </c>
+      <c r="D41" s="13">
+        <v>8</v>
+      </c>
+      <c r="E41" s="13">
+        <v>8</v>
+      </c>
+      <c r="F41" s="13">
+        <v>8</v>
+      </c>
+      <c r="G41" s="15">
+        <v>8</v>
+      </c>
+      <c r="H41" s="17">
+        <v>8</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="13">
+        <v>13.9</v>
+      </c>
+      <c r="K41" s="13">
+        <v>13.9</v>
+      </c>
+      <c r="L41" s="13">
+        <v>13.9</v>
+      </c>
+      <c r="M41" s="13">
+        <v>13.9</v>
+      </c>
+      <c r="N41" s="13">
+        <v>13.9</v>
+      </c>
+      <c r="O41" s="15">
+        <v>13.9</v>
+      </c>
+      <c r="P41" s="17">
+        <v>13.9</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R41" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="S41" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="T41" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="U41" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="V41" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="W41" s="15">
+        <v>11.8</v>
+      </c>
+      <c r="X41" s="17">
+        <v>11.8</v>
+      </c>
+      <c r="Y41" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="B42">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="G42" s="8">
+        <v>8</v>
+      </c>
+      <c r="H42" s="9">
+        <v>8</v>
+      </c>
+      <c r="J42">
+        <v>13</v>
+      </c>
+      <c r="K42">
+        <v>13</v>
+      </c>
+      <c r="L42">
+        <v>13</v>
+      </c>
+      <c r="M42">
+        <v>13</v>
+      </c>
+      <c r="N42">
+        <v>13</v>
+      </c>
+      <c r="O42" s="8">
+        <v>13</v>
+      </c>
+      <c r="P42" s="9">
+        <v>13</v>
+      </c>
+      <c r="R42">
+        <v>11.1</v>
+      </c>
+      <c r="S42">
+        <v>11.1</v>
+      </c>
+      <c r="T42">
+        <v>11.1</v>
+      </c>
+      <c r="U42">
+        <v>11.1</v>
+      </c>
+      <c r="V42">
+        <v>11.1</v>
+      </c>
+      <c r="W42" s="8">
+        <v>11.1</v>
+      </c>
+      <c r="X42" s="9">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>281</v>
+      </c>
+      <c r="B43">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" s="8">
+        <v>8</v>
+      </c>
+      <c r="H43" s="9">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <v>12.1</v>
+      </c>
+      <c r="K43">
+        <v>12.1</v>
+      </c>
+      <c r="L43">
+        <v>12.1</v>
+      </c>
+      <c r="M43">
+        <v>12.1</v>
+      </c>
+      <c r="N43">
+        <v>12.1</v>
+      </c>
+      <c r="O43" s="8">
+        <v>12.1</v>
+      </c>
+      <c r="P43" s="9">
+        <v>12.1</v>
+      </c>
+      <c r="R43">
+        <v>10.1</v>
+      </c>
+      <c r="S43">
+        <v>10.1</v>
+      </c>
+      <c r="T43">
+        <v>10.1</v>
+      </c>
+      <c r="U43">
+        <v>10.1</v>
+      </c>
+      <c r="V43">
+        <v>10.1</v>
+      </c>
+      <c r="W43" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="X43" s="9">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44" s="8">
+        <v>8</v>
+      </c>
+      <c r="H44" s="9">
+        <v>8</v>
+      </c>
+      <c r="J44">
+        <v>11.3</v>
+      </c>
+      <c r="K44">
+        <v>11.3</v>
+      </c>
+      <c r="L44">
+        <v>11.3</v>
+      </c>
+      <c r="M44">
+        <v>11.3</v>
+      </c>
+      <c r="N44">
+        <v>11.3</v>
+      </c>
+      <c r="O44" s="8">
+        <v>11.3</v>
+      </c>
+      <c r="P44" s="9">
+        <v>11.3</v>
+      </c>
+      <c r="R44">
+        <v>8.5</v>
+      </c>
+      <c r="S44">
+        <v>8.5</v>
+      </c>
+      <c r="T44">
+        <v>8.5</v>
+      </c>
+      <c r="U44">
+        <v>8.5</v>
+      </c>
+      <c r="V44">
+        <v>8.5</v>
+      </c>
+      <c r="W44" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="X44" s="9">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <v>8</v>
+      </c>
+      <c r="G45" s="8">
+        <v>8</v>
+      </c>
+      <c r="H45" s="9">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>11.3</v>
+      </c>
+      <c r="K45">
+        <v>11.3</v>
+      </c>
+      <c r="L45">
+        <v>11.3</v>
+      </c>
+      <c r="M45">
+        <v>11.3</v>
+      </c>
+      <c r="N45">
+        <v>11.3</v>
+      </c>
+      <c r="O45" s="8">
+        <v>11.3</v>
+      </c>
+      <c r="P45" s="9">
+        <v>11.3</v>
+      </c>
+      <c r="R45">
+        <v>8.1</v>
+      </c>
+      <c r="S45">
+        <v>8.1</v>
+      </c>
+      <c r="T45">
+        <v>8.1</v>
+      </c>
+      <c r="U45">
+        <v>8.1</v>
+      </c>
+      <c r="V45">
+        <v>8.1</v>
+      </c>
+      <c r="W45" s="8">
+        <v>8.1</v>
+      </c>
+      <c r="X45" s="9">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" s="8">
+        <v>6</v>
+      </c>
+      <c r="H46" s="9">
+        <v>6</v>
+      </c>
+      <c r="J46">
+        <v>10.8</v>
+      </c>
+      <c r="K46">
+        <v>10.8</v>
+      </c>
+      <c r="L46">
+        <v>10.8</v>
+      </c>
+      <c r="M46">
+        <v>10.8</v>
+      </c>
+      <c r="N46">
+        <v>10.8</v>
+      </c>
+      <c r="O46" s="8">
+        <v>10.8</v>
+      </c>
+      <c r="P46" s="9">
+        <v>10.8</v>
+      </c>
+      <c r="R46">
+        <v>7.4</v>
+      </c>
+      <c r="S46">
+        <v>7.4</v>
+      </c>
+      <c r="T46">
+        <v>7.4</v>
+      </c>
+      <c r="U46">
+        <v>7.4</v>
+      </c>
+      <c r="V46">
+        <v>7.4</v>
+      </c>
+      <c r="W46" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="X46" s="9">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>309</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" s="8">
+        <v>2</v>
+      </c>
+      <c r="H47" s="9">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K47">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="L47">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="M47">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N47">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="O47" s="8">
+        <v>9</v>
+      </c>
+      <c r="P47" s="9">
+        <v>8.9</v>
+      </c>
+      <c r="R47">
+        <v>7.1</v>
+      </c>
+      <c r="S47">
+        <v>7.1</v>
+      </c>
+      <c r="T47">
+        <v>7.1</v>
+      </c>
+      <c r="U47">
+        <v>7.1</v>
+      </c>
+      <c r="V47">
+        <v>6.9</v>
+      </c>
+      <c r="W47" s="8">
+        <v>6.7</v>
+      </c>
+      <c r="X47" s="9">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" s="8">
+        <v>2</v>
+      </c>
+      <c r="H48" s="9">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K48">
+        <v>8.6</v>
+      </c>
+      <c r="L48">
+        <v>8.5</v>
+      </c>
+      <c r="M48">
+        <v>8.4</v>
+      </c>
+      <c r="N48">
+        <v>8.4</v>
+      </c>
+      <c r="O48" s="8">
+        <v>8.4</v>
+      </c>
+      <c r="P48" s="9">
+        <v>8.4</v>
+      </c>
+      <c r="R48">
+        <v>6.4</v>
+      </c>
+      <c r="S48">
+        <v>5.9</v>
+      </c>
+      <c r="T48">
+        <v>5.6</v>
+      </c>
+      <c r="U48">
+        <v>5.7</v>
+      </c>
+      <c r="V48">
+        <v>5.7</v>
+      </c>
+      <c r="W48" s="8">
+        <v>5.7</v>
+      </c>
+      <c r="X48" s="9">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" s="8">
+        <v>2</v>
+      </c>
+      <c r="H49" s="9">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>7.6</v>
+      </c>
+      <c r="K49">
+        <v>7.6</v>
+      </c>
+      <c r="L49">
+        <v>7.6</v>
+      </c>
+      <c r="M49">
+        <v>7.6</v>
+      </c>
+      <c r="N49">
+        <v>7.6</v>
+      </c>
+      <c r="O49" s="8">
+        <v>7.6</v>
+      </c>
+      <c r="P49" s="9">
+        <v>7.6</v>
+      </c>
+      <c r="R49">
+        <v>3.7</v>
+      </c>
+      <c r="S49">
+        <v>3.7</v>
+      </c>
+      <c r="T49">
+        <v>3.7</v>
+      </c>
+      <c r="U49">
+        <v>3.7</v>
+      </c>
+      <c r="V49">
+        <v>3.7</v>
+      </c>
+      <c r="W49" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="X49" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="F50">
+        <v>6</v>
+      </c>
+      <c r="G50" s="8">
+        <v>2</v>
+      </c>
+      <c r="H50" s="9">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>7.5</v>
+      </c>
+      <c r="K50">
+        <v>7.5</v>
+      </c>
+      <c r="L50">
+        <v>7.5</v>
+      </c>
+      <c r="M50">
+        <v>7.5</v>
+      </c>
+      <c r="N50">
+        <v>7.5</v>
+      </c>
+      <c r="O50" s="8">
+        <v>7.5</v>
+      </c>
+      <c r="P50" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="R50">
+        <v>3.4</v>
+      </c>
+      <c r="S50">
+        <v>3.4</v>
+      </c>
+      <c r="T50">
+        <v>3.4</v>
+      </c>
+      <c r="U50">
+        <v>3.4</v>
+      </c>
+      <c r="V50">
+        <v>3.4</v>
+      </c>
+      <c r="W50" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="X50" s="9">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>6</v>
+      </c>
+      <c r="G51" s="8">
+        <v>1</v>
+      </c>
+      <c r="H51" s="9">
+        <v>6</v>
+      </c>
+      <c r="J51">
+        <v>6.4</v>
+      </c>
+      <c r="K51">
+        <v>6.4</v>
+      </c>
+      <c r="L51">
+        <v>6.4</v>
+      </c>
+      <c r="M51">
+        <v>6.4</v>
+      </c>
+      <c r="N51">
+        <v>6.4</v>
+      </c>
+      <c r="O51" s="8">
+        <v>6.4</v>
+      </c>
+      <c r="P51" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="R51">
+        <v>3.2</v>
+      </c>
+      <c r="S51">
+        <v>3.2</v>
+      </c>
+      <c r="T51">
+        <v>3.2</v>
+      </c>
+      <c r="U51">
+        <v>3.2</v>
+      </c>
+      <c r="V51">
+        <v>3.2</v>
+      </c>
+      <c r="W51" s="8">
+        <v>3.2</v>
+      </c>
+      <c r="X51" s="9">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" s="8">
+        <v>2</v>
+      </c>
+      <c r="H52" s="9">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>5.5</v>
+      </c>
+      <c r="K52">
+        <v>5.5</v>
+      </c>
+      <c r="L52">
+        <v>5.5</v>
+      </c>
+      <c r="M52">
+        <v>5.5</v>
+      </c>
+      <c r="N52">
+        <v>5.5</v>
+      </c>
+      <c r="O52" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="P52" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="R52">
+        <v>2.5</v>
+      </c>
+      <c r="S52">
+        <v>2.5</v>
+      </c>
+      <c r="T52">
+        <v>2.5</v>
+      </c>
+      <c r="U52">
+        <v>2.5</v>
+      </c>
+      <c r="V52">
+        <v>2.5</v>
+      </c>
+      <c r="W52" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="X52" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>351</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53" s="8">
+        <v>2</v>
+      </c>
+      <c r="H53" s="9">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>5.9</v>
+      </c>
+      <c r="K53">
+        <v>5.9</v>
+      </c>
+      <c r="L53">
+        <v>5.9</v>
+      </c>
+      <c r="M53">
+        <v>5.9</v>
+      </c>
+      <c r="N53">
+        <v>5.9</v>
+      </c>
+      <c r="O53" s="8">
+        <v>5.9</v>
+      </c>
+      <c r="P53" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="R53">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="S53">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="T53">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="U53">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V53">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W53" s="8">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X53" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" s="4">
+        <v>2</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" s="10">
+        <v>2</v>
+      </c>
+      <c r="H54" s="11">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>5.8</v>
+      </c>
+      <c r="K54" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="L54" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="M54">
+        <v>5.8</v>
+      </c>
+      <c r="N54">
+        <v>6.7</v>
+      </c>
+      <c r="O54" s="10">
+        <v>6.7</v>
+      </c>
+      <c r="P54" s="11">
+        <v>6.7</v>
+      </c>
+      <c r="R54">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S54" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T54" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U54">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V54">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W54" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X54" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="18">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="B55" s="13">
+        <v>2</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="13">
+        <v>6.7</v>
+      </c>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="R55" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+      <c r="X55" s="13"/>
+      <c r="Y55" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B55 B39:H54 A39:A55 B3:H4 A5:H38">
+    <cfRule type="expression" dxfId="15" priority="5">
+      <formula>A3=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="6">
+      <formula>A3=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>A3=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="8">
+      <formula>A3=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="9">
+      <formula>A3=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="10">
+      <formula>A3=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>A3=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>A3=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:P54">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:P55">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:X54">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R3:X55">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3" s="6">
+        <v>6</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <f>A3+7</f>
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8">
+        <v>6</v>
+      </c>
+      <c r="H4" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f t="shared" ref="A5:A55" si="0">A4+7</f>
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4</v>
+      </c>
+      <c r="H6" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8">
+        <v>7</v>
+      </c>
+      <c r="H8" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10" s="8">
+        <v>6</v>
+      </c>
+      <c r="H10" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8">
+        <v>6</v>
+      </c>
+      <c r="H11" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13" s="8">
+        <v>6</v>
+      </c>
+      <c r="H13" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>6</v>
+      </c>
+      <c r="H14" s="17">
+        <v>5</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="B15" s="13">
+        <v>6</v>
+      </c>
+      <c r="C15" s="13">
+        <v>6</v>
+      </c>
+      <c r="D15" s="13">
+        <v>6</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14">
+        <v>7</v>
+      </c>
+      <c r="G15" s="16">
+        <v>2</v>
+      </c>
+      <c r="H15" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="B16" s="12">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>7</v>
+      </c>
+      <c r="H16" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17" s="8">
+        <v>5</v>
+      </c>
+      <c r="H17" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <v>6</v>
+      </c>
+      <c r="H18" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19" s="8">
+        <v>6</v>
+      </c>
+      <c r="H19" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" s="8">
+        <v>6</v>
+      </c>
+      <c r="H20" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" s="8">
+        <v>6</v>
+      </c>
+      <c r="H21" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="B23">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>7</v>
+      </c>
+      <c r="G23" s="8">
+        <v>6</v>
+      </c>
+      <c r="H23" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="B24" s="4">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" s="8">
+        <v>2</v>
+      </c>
+      <c r="H24" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>7</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25" s="8">
+        <v>2</v>
+      </c>
+      <c r="H25" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>6</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26" s="8">
+        <v>6</v>
+      </c>
+      <c r="H26" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" s="8">
+        <v>2</v>
+      </c>
+      <c r="H27" s="17">
+        <v>2</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+      <c r="B28" s="13">
+        <v>3</v>
+      </c>
+      <c r="C28" s="13">
+        <v>3</v>
+      </c>
+      <c r="D28" s="13">
+        <v>3</v>
+      </c>
+      <c r="E28" s="13">
+        <v>2</v>
+      </c>
+      <c r="F28" s="13">
+        <v>7</v>
+      </c>
+      <c r="G28" s="16">
+        <v>7</v>
+      </c>
+      <c r="H28" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>183</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" s="8">
+        <v>5</v>
+      </c>
+      <c r="H29" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>7</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" s="8">
+        <v>7</v>
+      </c>
+      <c r="H30" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>7</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31" s="8">
+        <v>7</v>
+      </c>
+      <c r="H31" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32" s="8">
+        <v>2</v>
+      </c>
+      <c r="H32" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" s="8">
+        <v>5</v>
+      </c>
+      <c r="H33" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>218</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" s="8">
+        <v>5</v>
+      </c>
+      <c r="H34" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="B35">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>7</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" s="8">
+        <v>5</v>
+      </c>
+      <c r="H35" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36" s="8">
+        <v>7</v>
+      </c>
+      <c r="H36" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>239</v>
+      </c>
+      <c r="B37" s="4">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>7</v>
+      </c>
+      <c r="G37" s="8">
+        <v>7</v>
+      </c>
+      <c r="H37" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38" s="8">
+        <v>7</v>
+      </c>
+      <c r="H38" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <f>A38+7</f>
+        <v>253</v>
+      </c>
+      <c r="B39">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" s="8">
+        <v>5</v>
+      </c>
+      <c r="H39" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" s="8">
+        <v>7</v>
+      </c>
+      <c r="H40" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18">
+        <f t="shared" si="0"/>
+        <v>267</v>
+      </c>
+      <c r="B41" s="13">
+        <v>7</v>
+      </c>
+      <c r="C41" s="13">
+        <v>2</v>
+      </c>
+      <c r="D41" s="13">
+        <v>2</v>
+      </c>
+      <c r="E41" s="13">
+        <v>7</v>
+      </c>
+      <c r="F41" s="13">
+        <v>7</v>
+      </c>
+      <c r="G41" s="15">
+        <v>7</v>
+      </c>
+      <c r="H41" s="17">
+        <v>5</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" s="8">
+        <v>7</v>
+      </c>
+      <c r="H42" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>281</v>
+      </c>
+      <c r="B43">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="8">
+        <v>6</v>
+      </c>
+      <c r="H43" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="B44">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44" s="8">
+        <v>7</v>
+      </c>
+      <c r="H44" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
+      <c r="B45">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>7</v>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45" s="8">
+        <v>7</v>
+      </c>
+      <c r="H45" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" s="8">
+        <v>7</v>
+      </c>
+      <c r="H46" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>309</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>7</v>
+      </c>
+      <c r="G47" s="8">
+        <v>7</v>
+      </c>
+      <c r="H47" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" s="8">
+        <v>6</v>
+      </c>
+      <c r="H48" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>7</v>
+      </c>
+      <c r="E49">
+        <v>6</v>
+      </c>
+      <c r="F49">
+        <v>7</v>
+      </c>
+      <c r="G49" s="8">
+        <v>2</v>
+      </c>
+      <c r="H49" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50">
+        <v>7</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" s="8">
+        <v>5</v>
+      </c>
+      <c r="H50" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+      <c r="B51">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+      <c r="G51" s="8">
+        <v>1</v>
+      </c>
+      <c r="H51" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>6</v>
+      </c>
+      <c r="G52" s="8">
+        <v>2</v>
+      </c>
+      <c r="H52" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>351</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" s="8">
+        <v>6</v>
+      </c>
+      <c r="H53" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54" s="4">
+        <v>5</v>
+      </c>
+      <c r="D54" s="4">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54" s="10">
+        <v>2</v>
+      </c>
+      <c r="H54" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="18">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="B55" s="13">
+        <v>1</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B55 B39:H54 A39:A55 B3:H4 A5:H38">
+    <cfRule type="expression" dxfId="7" priority="5">
+      <formula>A3=8</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>A3=7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="7">
+      <formula>A3=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>A3=5</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>A3=4</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>A3=3</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>A3=2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>A3=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>